--- a/FMS_writeup/data/f_model_one_step_ahead function check.xlsx
+++ b/FMS_writeup/data/f_model_one_step_ahead function check.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\preseason_SEAK_pink_salmon_forecast\FMS_writeup\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BF869CF7-C1F0-4B83-BAEE-FA6E166CA9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED83D4F-49D6-4F34-90F0-01D5797818CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="f_model_one_step_ahead function" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -190,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1070,11 +1082,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="AB39" sqref="AB39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2845,7 +2857,7 @@
         <v>6.1685983E-2</v>
       </c>
       <c r="AC23" s="1">
-        <f t="shared" ref="AC22:AC25" si="1">(X23-AA23)^2</f>
+        <f t="shared" ref="AC23:AC25" si="1">(X23-AA23)^2</f>
         <v>3.538063357287291E-2</v>
       </c>
     </row>
